--- a/invoices/Company LDY.xlsx
+++ b/invoices/Company LDY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA66A985-77FB-475B-B8C7-C8B5492741BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5444EC2A-3874-4DCD-A598-8E68479E89F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{E27F2384-DAD6-4D0F-805B-3311412A9657}"/>
+    <workbookView xWindow="30360" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{E7CC0A18-BEAF-46F7-9B5F-664758665FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Company LDY-34" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DECCD29-838A-4BAD-B9CB-4C1C1EB91FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D0CAA8-BBFD-4612-BE1D-9439D6A2B894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8E6C48-ADD8-43E8-AEE0-81A22EADDD16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F58EA-152C-41DD-8A07-7BD0E3162E4D}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1606,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4260,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E333F4BF-43FA-4259-9A36-FF5B9B7D5E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3A8B6-18D6-4F51-9C7C-42B234224EB4}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/invoices/Company LDY.xlsx
+++ b/invoices/Company LDY.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5444EC2A-3874-4DCD-A598-8E68479E89F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC63506C-56A1-497D-A6AE-8F743888E3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{E7CC0A18-BEAF-46F7-9B5F-664758665FE8}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{A77536F2-4418-41DF-B6A0-F4D675560680}"/>
   </bookViews>
   <sheets>
     <sheet name="Company LDY-34" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D0CAA8-BBFD-4612-BE1D-9439D6A2B894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80056AF3-E323-4252-AD9A-090EB3456DEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,9 +672,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F58EA-152C-41DD-8A07-7BD0E3162E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B8F7A-8662-43B2-94C4-0D316B532B0D}">
   <sheetPr codeName="Sheet8">
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4260,8 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3A8B6-18D6-4F51-9C7C-42B234224EB4}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4010E9F4-9D6C-4402-8E1F-B4196A0926FE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company LDY.xlsx
+++ b/invoices/Company LDY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC63506C-56A1-497D-A6AE-8F743888E3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C18120-8035-4F6B-B931-C006AE368835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{A77536F2-4418-41DF-B6A0-F4D675560680}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{8BF115BA-88C7-4271-A54C-2DE7CA3DCBE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Company LDY-34" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80056AF3-E323-4252-AD9A-090EB3456DEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D20850-44CF-4A3C-86CF-5E75615C1E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B8F7A-8662-43B2-94C4-0D316B532B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598EA25-86A1-4DB0-BEF8-E5890A27F140}">
   <sheetPr codeName="Sheet8">
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4260,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4010E9F4-9D6C-4402-8E1F-B4196A0926FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FB305B-0CF7-43D1-AB27-F718896BE5CA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company LDY.xlsx
+++ b/invoices/Company LDY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C18120-8035-4F6B-B931-C006AE368835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFC9627-D258-4A27-A05E-011A7471CB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{8BF115BA-88C7-4271-A54C-2DE7CA3DCBE5}"/>
+    <workbookView xWindow="30360" yWindow="885" windowWidth="21045" windowHeight="15495" xr2:uid="{7F296B0C-7FA1-48C3-84E9-F8B36346E87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Company LDY-34" sheetId="2" r:id="rId1"/>
@@ -297,22 +297,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D20850-44CF-4A3C-86CF-5E75615C1E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F96364-2239-4C26-9FC3-01BC74FBABC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -334,8 +334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="742950"/>
-          <a:ext cx="2000250" cy="973667"/>
+          <a:off x="482600" y="911226"/>
+          <a:ext cx="2000250" cy="974725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598EA25-86A1-4DB0-BEF8-E5890A27F140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09AEE0C-EA26-4FDE-AD3C-1F072C5327F5}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1606,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44157</v>
+        <v>44161</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4255,12 +4255,13 @@
     <mergeCell ref="C45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FB305B-0CF7-43D1-AB27-F718896BE5CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21219665-B3A1-4BC1-8BA8-0C07EA162F99}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
